--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/未评估数据/gpt4o_705_processed_output.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/未评估数据/gpt4o_705_processed_output.xlsx
@@ -38,15 +38,7 @@
     <t>text</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>label</t>
-    </r>
+    <t>label</t>
   </si>
   <si>
     <t>predict</t>
@@ -92,6 +84,9 @@
     <t>并概括义。你认为谁是最可爱的人结着原文分析，</t>
   </si>
   <si>
+    <t>个体发言</t>
+  </si>
+  <si>
     <t>分析过程：在这段话语中，“并概括义。你认为谁是最可爱的人结着原文分析”体现出老师发起了一个开展课堂活动的指令。首先，“并概括义”中的“概括义”意味着老师要求学生对某段文字或内容进行概括总结，概括总结是个人进行的认知活动。此外，“你认为谁是最可爱的人结着原文分析”中的“你认为”表明老师希望听取某位特定学生的观点，并结合原文进行深入分析。因此，综合上述信息，该课堂活动是由某一学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
 输出结果：
 ```json
@@ -141,9 +136,6 @@
   </si>
   <si>
     <t>然后概括诚意五分钟的时间。这已经是我们第次次学篇文章章网课课期间，杰杰师师这篇文章的是吧？所以我们是第二次学了，呃，我就请同学来回答啊，我们先不交流这个问题，就是看你的这个还是没你的方式，</t>
-  </si>
-  <si>
-    <t>个体发言</t>
   </si>
   <si>
     <t>分析过程：在这段话语中，”我就请同学来回答啊“体现出老师发起了一个开展课堂活动的指令，邀请一个学生来回答问题，“同学”没有在具体名字修饰，意味着活动的执行主体是个体学生。”来看你的这个还是没你的方式“类似要求再次审视学生的方式，符合”个体发言“的特征。因此，课堂活动的类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1127,7 +1119,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,6 +1130,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1645,137 +1645,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,19 +1784,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2147,8 +2150,8 @@
   <sheetPr/>
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2183,7 +2186,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -2200,42 +2203,42 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -2251,7 +2254,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
@@ -2268,8 +2271,8 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -2285,8 +2288,8 @@
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2302,7 +2305,7 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
@@ -2319,8 +2322,8 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2336,8 +2339,8 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
@@ -2354,7 +2357,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -2387,8 +2390,8 @@
       <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>61</v>
@@ -2404,7 +2407,7 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E15" t="s">
@@ -2421,7 +2424,7 @@
       <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E16" t="s">
@@ -2438,7 +2441,7 @@
       <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
@@ -2455,8 +2458,8 @@
       <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -2472,8 +2475,8 @@
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
@@ -2489,8 +2492,8 @@
       <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>87</v>
@@ -2507,7 +2510,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>91</v>
@@ -2524,7 +2527,7 @@
         <v>94</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>95</v>
@@ -2540,7 +2543,7 @@
       <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
@@ -2557,8 +2560,8 @@
       <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>103</v>
@@ -2574,8 +2577,8 @@
       <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>107</v>
@@ -2592,7 +2595,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>111</v>
@@ -2625,8 +2628,8 @@
       <c r="C28" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>120</v>
@@ -2642,8 +2645,8 @@
       <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
+      <c r="D29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>124</v>
@@ -2659,8 +2662,8 @@
       <c r="C30" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>128</v>
@@ -2676,7 +2679,7 @@
       <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
@@ -2693,8 +2696,8 @@
       <c r="C32" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>136</v>
@@ -2710,8 +2713,8 @@
       <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>140</v>
@@ -2727,8 +2730,8 @@
       <c r="C34" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>17</v>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E34" t="s">
         <v>144</v>
@@ -2744,8 +2747,8 @@
       <c r="C35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
+      <c r="D35" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E35" t="s">
         <v>148</v>
@@ -2761,7 +2764,7 @@
       <c r="C36" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E36" t="s">
@@ -2778,8 +2781,8 @@
       <c r="C37" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>17</v>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E37" t="s">
         <v>156</v>
@@ -2795,8 +2798,8 @@
       <c r="C38" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>17</v>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E38" t="s">
         <v>160</v>
@@ -2812,7 +2815,7 @@
       <c r="C39" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E39" t="s">
@@ -2829,7 +2832,7 @@
       <c r="C40" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E40" t="s">
@@ -2846,8 +2849,8 @@
       <c r="C41" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>22</v>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>173</v>
@@ -2863,8 +2866,8 @@
       <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>17</v>
+      <c r="D42" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -2880,7 +2883,7 @@
       <c r="C43" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E43" t="s">
@@ -2914,7 +2917,7 @@
       <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
@@ -2931,8 +2934,8 @@
       <c r="C46" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>22</v>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>193</v>
@@ -2948,7 +2951,7 @@
       <c r="C47" t="s">
         <v>196</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
@@ -2966,7 +2969,7 @@
         <v>200</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>201</v>
@@ -2999,8 +3002,8 @@
       <c r="C50" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>27</v>
+      <c r="D50" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E50" t="s">
         <v>209</v>
@@ -3016,7 +3019,7 @@
       <c r="C51" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
@@ -3024,451 +3027,451 @@
       </c>
     </row>
     <row r="52" spans="4:4">
-      <c r="D52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="3"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="8"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="4:4">
-      <c r="D55" s="8"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="4:4">
-      <c r="D56" s="8"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="4:4">
-      <c r="D57" s="8"/>
+      <c r="D57" s="9"/>
     </row>
     <row r="58" spans="4:4">
-      <c r="D58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="8"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="8"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="4:4">
-      <c r="D61" s="8"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="8"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="8"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="8"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="8"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="8"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="8"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="4:4">
-      <c r="D69" s="8"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="8"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="8"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="8"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="8"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="8"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="8"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="8"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="8"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="8"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="8"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="8"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="8"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="8"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="8"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="8"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="8"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="8"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="8"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="8"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="4:4">
-      <c r="D90" s="8"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91" s="8"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="8"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="4:4">
-      <c r="D93" s="8"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="4:4">
-      <c r="D94" s="8"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" spans="4:4">
-      <c r="D95" s="8"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" spans="4:4">
-      <c r="D96" s="8"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="4:4">
-      <c r="D97" s="8"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="4:4">
-      <c r="D98" s="8"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="8"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="4:4">
-      <c r="D100" s="8"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="8"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="8"/>
+      <c r="D102" s="9"/>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="8"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="8"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105" spans="4:4">
-      <c r="D105" s="8"/>
+      <c r="D105" s="9"/>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="8"/>
+      <c r="D106" s="9"/>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="8"/>
+      <c r="D107" s="9"/>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="8"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="8"/>
+      <c r="D109" s="9"/>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="8"/>
+      <c r="D110" s="9"/>
     </row>
     <row r="111" spans="4:4">
-      <c r="D111" s="8"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="8"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="8"/>
+      <c r="D113" s="9"/>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="8"/>
+      <c r="D114" s="9"/>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="8"/>
+      <c r="D115" s="9"/>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="8"/>
+      <c r="D116" s="9"/>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="8"/>
+      <c r="D117" s="9"/>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="8"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="8"/>
+      <c r="D119" s="9"/>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="8"/>
+      <c r="D120" s="9"/>
     </row>
     <row r="121" spans="4:4">
-      <c r="D121" s="8"/>
+      <c r="D121" s="9"/>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="8"/>
+      <c r="D122" s="9"/>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="8"/>
+      <c r="D123" s="9"/>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="8"/>
+      <c r="D124" s="9"/>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="8"/>
+      <c r="D125" s="9"/>
     </row>
     <row r="126" spans="4:4">
-      <c r="D126" s="8"/>
+      <c r="D126" s="9"/>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="8"/>
+      <c r="D127" s="9"/>
     </row>
     <row r="128" spans="4:4">
-      <c r="D128" s="8"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" spans="4:4">
-      <c r="D129" s="8"/>
+      <c r="D129" s="9"/>
     </row>
     <row r="130" spans="4:4">
-      <c r="D130" s="8"/>
+      <c r="D130" s="9"/>
     </row>
     <row r="131" spans="4:4">
-      <c r="D131" s="8"/>
+      <c r="D131" s="9"/>
     </row>
     <row r="132" spans="4:4">
-      <c r="D132" s="8"/>
+      <c r="D132" s="9"/>
     </row>
     <row r="133" spans="4:4">
-      <c r="D133" s="8"/>
+      <c r="D133" s="9"/>
     </row>
     <row r="134" spans="4:4">
-      <c r="D134" s="8"/>
+      <c r="D134" s="9"/>
     </row>
     <row r="135" spans="4:4">
-      <c r="D135" s="8"/>
+      <c r="D135" s="9"/>
     </row>
     <row r="136" spans="4:4">
-      <c r="D136" s="8"/>
+      <c r="D136" s="9"/>
     </row>
     <row r="137" spans="4:4">
-      <c r="D137" s="8"/>
+      <c r="D137" s="9"/>
     </row>
     <row r="138" spans="4:4">
-      <c r="D138" s="8"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139" spans="4:4">
-      <c r="D139" s="8"/>
+      <c r="D139" s="9"/>
     </row>
     <row r="140" spans="4:4">
-      <c r="D140" s="8"/>
+      <c r="D140" s="9"/>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="8"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="8"/>
+      <c r="D142" s="9"/>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="8"/>
+      <c r="D143" s="9"/>
     </row>
     <row r="144" spans="4:4">
-      <c r="D144" s="8"/>
+      <c r="D144" s="9"/>
     </row>
     <row r="145" spans="4:4">
-      <c r="D145" s="8"/>
+      <c r="D145" s="9"/>
     </row>
     <row r="146" spans="4:4">
-      <c r="D146" s="8"/>
+      <c r="D146" s="9"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="8"/>
+      <c r="D147" s="9"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="8"/>
+      <c r="D148" s="9"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="8"/>
+      <c r="D149" s="9"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="8"/>
+      <c r="D150" s="9"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="8"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="8"/>
+      <c r="D152" s="9"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="8"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="8"/>
+      <c r="D154" s="9"/>
     </row>
     <row r="155" spans="4:4">
-      <c r="D155" s="8"/>
+      <c r="D155" s="9"/>
     </row>
     <row r="156" spans="4:4">
-      <c r="D156" s="8"/>
+      <c r="D156" s="9"/>
     </row>
     <row r="157" spans="4:4">
-      <c r="D157" s="8"/>
+      <c r="D157" s="9"/>
     </row>
     <row r="158" spans="4:4">
-      <c r="D158" s="8"/>
+      <c r="D158" s="9"/>
     </row>
     <row r="159" spans="4:4">
-      <c r="D159" s="8"/>
+      <c r="D159" s="9"/>
     </row>
     <row r="160" spans="4:4">
-      <c r="D160" s="8"/>
+      <c r="D160" s="9"/>
     </row>
     <row r="161" spans="4:4">
-      <c r="D161" s="8"/>
+      <c r="D161" s="9"/>
     </row>
     <row r="162" spans="4:4">
-      <c r="D162" s="8"/>
+      <c r="D162" s="9"/>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="8"/>
+      <c r="D163" s="9"/>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="8"/>
+      <c r="D164" s="9"/>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="8"/>
+      <c r="D165" s="9"/>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="8"/>
+      <c r="D166" s="9"/>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="8"/>
+      <c r="D167" s="9"/>
     </row>
     <row r="168" spans="4:4">
-      <c r="D168" s="8"/>
+      <c r="D168" s="9"/>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="8"/>
+      <c r="D169" s="9"/>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="8"/>
+      <c r="D170" s="9"/>
     </row>
     <row r="171" spans="4:4">
-      <c r="D171" s="8"/>
+      <c r="D171" s="9"/>
     </row>
     <row r="172" spans="4:4">
-      <c r="D172" s="8"/>
+      <c r="D172" s="9"/>
     </row>
     <row r="173" spans="4:4">
-      <c r="D173" s="8"/>
+      <c r="D173" s="9"/>
     </row>
     <row r="174" spans="4:4">
-      <c r="D174" s="8"/>
+      <c r="D174" s="9"/>
     </row>
     <row r="175" spans="4:4">
-      <c r="D175" s="8"/>
+      <c r="D175" s="9"/>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="8"/>
+      <c r="D176" s="9"/>
     </row>
     <row r="177" spans="4:4">
-      <c r="D177" s="8"/>
+      <c r="D177" s="9"/>
     </row>
     <row r="178" spans="4:4">
-      <c r="D178" s="8"/>
+      <c r="D178" s="9"/>
     </row>
     <row r="179" spans="4:4">
-      <c r="D179" s="8"/>
+      <c r="D179" s="9"/>
     </row>
     <row r="180" spans="4:4">
-      <c r="D180" s="8"/>
+      <c r="D180" s="9"/>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="8"/>
+      <c r="D181" s="9"/>
     </row>
     <row r="182" spans="4:4">
-      <c r="D182" s="8"/>
+      <c r="D182" s="9"/>
     </row>
     <row r="183" spans="4:4">
-      <c r="D183" s="8"/>
+      <c r="D183" s="9"/>
     </row>
     <row r="184" spans="4:4">
-      <c r="D184" s="8"/>
+      <c r="D184" s="9"/>
     </row>
     <row r="185" spans="4:4">
-      <c r="D185" s="8"/>
+      <c r="D185" s="9"/>
     </row>
     <row r="186" spans="4:4">
-      <c r="D186" s="8"/>
+      <c r="D186" s="9"/>
     </row>
     <row r="187" spans="4:4">
-      <c r="D187" s="8"/>
+      <c r="D187" s="9"/>
     </row>
     <row r="188" spans="4:4">
-      <c r="D188" s="8"/>
+      <c r="D188" s="9"/>
     </row>
     <row r="189" spans="4:4">
-      <c r="D189" s="8"/>
+      <c r="D189" s="9"/>
     </row>
     <row r="190" spans="4:4">
-      <c r="D190" s="8"/>
+      <c r="D190" s="9"/>
     </row>
     <row r="191" spans="4:4">
-      <c r="D191" s="8"/>
+      <c r="D191" s="9"/>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="8"/>
+      <c r="D192" s="9"/>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="8"/>
+      <c r="D193" s="9"/>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="8"/>
+      <c r="D194" s="9"/>
     </row>
     <row r="195" spans="4:4">
-      <c r="D195" s="8"/>
+      <c r="D195" s="9"/>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="8"/>
+      <c r="D196" s="9"/>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="8"/>
+      <c r="D197" s="9"/>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="8"/>
+      <c r="D198" s="9"/>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="8"/>
+      <c r="D199" s="9"/>
     </row>
     <row r="200" spans="4:4">
-      <c r="D200" s="8"/>
+      <c r="D200" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
